--- a/问题一览/git问题一览.xlsx
+++ b/问题一览/git问题一览.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eclipse上传GitHub" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -574,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -664,4 +665,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/问题一览/git问题一览.xlsx
+++ b/问题一览/git问题一览.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题1" sheetId="1" r:id="rId1"/>
     <sheet name="Eclipse上传GitHub" sheetId="2" r:id="rId2"/>
+    <sheet name="adobe flash flayer过期问题" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>解决：</t>
   </si>
@@ -123,6 +124,10 @@
   </si>
   <si>
     <t>最后才能记得越紧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新就可以了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,6 +284,49 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="133350"/>
+          <a:ext cx="13009525" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -671,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -681,4 +729,30 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/问题一览/git问题一览.xlsx
+++ b/问题一览/git问题一览.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="问题1" sheetId="1" r:id="rId1"/>
     <sheet name="Eclipse上传GitHub" sheetId="2" r:id="rId2"/>
     <sheet name="adobe flash flayer过期问题" sheetId="3" r:id="rId3"/>
+    <sheet name="B站内容下载" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>解决：</t>
   </si>
@@ -130,12 +131,19 @@
     <t>更新就可以了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.bilibili.com/</t>
+  </si>
+  <si>
+    <t>http://www.jijidown.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +171,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,17 +197,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -322,6 +341,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57150" y="133350"/>
+          <a:ext cx="13009525" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="781050"/>
           <a:ext cx="13009525" cy="7009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -735,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -755,4 +817,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>